--- a/core/format_kinerja2.xlsx
+++ b/core/format_kinerja2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="43">
   <si>
     <t xml:space="preserve">TANGGAL</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:30:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:00:01</t>
   </si>
 </sst>
 </file>
@@ -289,21 +295,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B91" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
-      <selection pane="topRight" activeCell="A3" activeCellId="0" sqref="A3:G106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B65" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="topRight" activeCell="G107" activeCellId="0" sqref="G107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.86"/>
   </cols>
@@ -2744,6 +2750,29 @@
       </c>
       <c r="G106" s="0" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
